--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1962.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1962.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.001*"import" + 0.001*"exchange" + 0.001*"may" + 0.001*"foreign" + 0.001*"currency" + 0.001*"account" + 0.001*"payment" + 0.001*"bank" + 0.001*"rate" + 0.001*"export"</t>
-  </si>
-  <si>
-    <t>0.002*"exchange" + 0.002*"import" + 0.001*"payment" + 0.001*"country" + 0.001*"bank" + 0.001*"account" + 0.001*"foreign" + 0.001*"export" + 0.001*"may" + 0.001*"currency"</t>
-  </si>
-  <si>
-    <t>0.001*"import" + 0.001*"exchange" + 0.001*"bank" + 0.001*"export" + 0.001*"payment" + 0.000*"rate" + 0.000*"foreign" + 0.000*"country" + 0.000*"may" + 0.000*"account"</t>
-  </si>
-  <si>
-    <t>0.023*"import" + 0.021*"exchange" + 0.015*"may" + 0.015*"payment" + 0.014*"account" + 0.014*"foreign" + 0.014*"bank" + 0.014*"currency" + 0.013*"export" + 0.011*"country"</t>
-  </si>
-  <si>
-    <t>0.001*"import" + 0.001*"exchange" + 0.001*"bank" + 0.001*"payment" + 0.001*"may" + 0.001*"country" + 0.001*"foreign" + 0.001*"account" + 0.001*"export" + 0.001*"currency"</t>
+    <t>0.039*"capital" + 0.032*"payment" + 0.021*"agreement" + 0.020*"transfer" + 0.020*"investment" + 0.015*"resident" + 0.015*"redistribution" + 0.014*"foreign" + 0.012*"bilateral" + 0.012*"united"</t>
+  </si>
+  <si>
+    <t>0.047*"account" + 0.034*"currency" + 0.028*"may" + 0.028*"rate" + 0.026*"exchange" + 0.024*"proceeds" + 0.022*"foreign" + 0.017*"export" + 0.017*"country" + 0.017*"payment"</t>
+  </si>
+  <si>
+    <t>0.091*"import" + 0.037*"license" + 0.032*"export" + 0.026*"per" + 0.023*"cent" + 0.023*"good" + 0.013*"require" + 0.013*"certain" + 0.013*"list" + 0.013*"subject"</t>
+  </si>
+  <si>
+    <t>0.058*"exchange" + 0.048*"fund" + 0.037*"monetary" + 0.036*"international" + 0.030*"control" + 0.026*"dollar" + 0.016*"travel" + 0.014*"foreign" + 0.012*"system" + 0.011*"value"</t>
+  </si>
+  <si>
+    <t>0.052*"bank" + 0.036*"area" + 0.031*"sterling" + 0.026*"may" + 0.021*"currency" + 0.018*"exchange" + 0.016*"franc" + 0.015*"foreign" + 0.015*"authorized" + 0.014*"note"</t>
   </si>
 </sst>
 </file>
